--- a/biology/Médecine/Fibrose_rétropéritonéale/Fibrose_rétropéritonéale.xlsx
+++ b/biology/Médecine/Fibrose_rétropéritonéale/Fibrose_rétropéritonéale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fibrose_r%C3%A9trop%C3%A9riton%C3%A9ale</t>
+          <t>Fibrose_rétropéritonéale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fibrose rétropéritonéale (FRP), ou maladie d'Ormond, est une maladie présentant une fibrose de l'espace situé derrière le péritoine, espace comprenant les reins, les uretères et l'aorte.
 Les symptômes sont variés : lombalgies, obstructions urinaires…
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fibrose_r%C3%A9trop%C3%A9riton%C3%A9ale</t>
+          <t>Fibrose_rétropéritonéale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans 70 % des cas, la maladie est idiopathique, c'est-à-dire qu'aucune cause n'apparaît décelable, mais elle peut parfois être secondaire à des affections sévères telles que des cancers et métastases du rétro péritoine, des infections (diverticulite), des traumatismes lombaires, aux irradiations (radiothérapie), des maladies inflammatoires et à des effets secondaires de médicaments dont on peut citer les plus incriminés[1] : méthylsergide, bêtabloquants, ergotamine, méthyldopa, etc. La liste des traitements médicamenteux n'est pas exhaustive[2].
-Les formes idiopathiques peuvent être en rapport avec une maladie inflammatoire touchant les immunoglobuline G4[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans 70 % des cas, la maladie est idiopathique, c'est-à-dire qu'aucune cause n'apparaît décelable, mais elle peut parfois être secondaire à des affections sévères telles que des cancers et métastases du rétro péritoine, des infections (diverticulite), des traumatismes lombaires, aux irradiations (radiothérapie), des maladies inflammatoires et à des effets secondaires de médicaments dont on peut citer les plus incriminés : méthylsergide, bêtabloquants, ergotamine, méthyldopa, etc. La liste des traitements médicamenteux n'est pas exhaustive.
+Les formes idiopathiques peuvent être en rapport avec une maladie inflammatoire touchant les immunoglobuline G4.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fibrose_r%C3%A9trop%C3%A9riton%C3%A9ale</t>
+          <t>Fibrose_rétropéritonéale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les corticoïde améliorent les symptômes et diminuent l'obstruction sur les voies urinaires. Ils sont donnés de manière prolongée sur une période pouvant aller de six mois à deux ans[1],[4].
-Une récidive souvent tardive (plus de 10 ans plus tard) impose la reprise du traitement ou l'augmentation des doses[1],[5].
-Les immunosuppresseurs sont une alternative à la corticothérapie et doivent également être donnés de manière prolongée[6]. Le tamoxifène semble cependant moins efficace que les corticoïdes[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les corticoïde améliorent les symptômes et diminuent l'obstruction sur les voies urinaires. Ils sont donnés de manière prolongée sur une période pouvant aller de six mois à deux ans,.
+Une récidive souvent tardive (plus de 10 ans plus tard) impose la reprise du traitement ou l'augmentation des doses,.
+Les immunosuppresseurs sont une alternative à la corticothérapie et doivent également être donnés de manière prolongée. Le tamoxifène semble cependant moins efficace que les corticoïdes.
 </t>
         </is>
       </c>
